--- a/Assets/StaticData/Excel/IngameOption.xlsx
+++ b/Assets/StaticData/Excel/IngameOption.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>optionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultOptionIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +508,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +520,7 @@
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +533,11 @@
       <c r="D1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -539,8 +550,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -553,8 +567,11 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -567,8 +584,11 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>102</v>
       </c>
@@ -581,8 +601,11 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>103</v>
       </c>
@@ -595,8 +618,11 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>104</v>
       </c>
@@ -609,8 +635,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>105</v>
       </c>
@@ -623,8 +652,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>106</v>
       </c>
@@ -637,8 +669,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>107</v>
       </c>
@@ -651,8 +686,11 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>108</v>
       </c>
@@ -665,8 +703,11 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>109</v>
       </c>
@@ -679,8 +720,11 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -693,8 +737,11 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>111</v>
       </c>
@@ -707,8 +754,11 @@
       <c r="D14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>112</v>
       </c>
@@ -721,8 +771,11 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>113</v>
       </c>
@@ -735,8 +788,11 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>114</v>
       </c>
@@ -749,8 +805,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>115</v>
       </c>
@@ -762,6 +821,9 @@
       </c>
       <c r="D18" t="s">
         <v>31</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StaticData/Excel/IngameOption.xlsx
+++ b/Assets/StaticData/Excel/IngameOption.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,50 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불가능, 어려움, 보통, 쉬움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 빠름, 빠름, 보통, 느림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>편파적 분포, 균형적 분포, 일반적 분포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짓궃은 날씨, 열대, 냉대, 맑음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마수의 시대, 강력한 마수, 일반 마수, 약한 마수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불가능, 어려움, 보통, 쉬움, 사용자 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빈번한 재앙, 잦은 재앙, 간헐적 재앙, 재앙 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 영향, 큰 영향, 작은 영향, 미미한 영향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕국과 비견됨, 핵심 도시, 작은 도시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잦음, 보통, 적음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Technology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +116,38 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬움, 보통, 어려움, 불가능, 사용자 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬움, 보통, 어려움, 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느림, 보통, 빠름, 매우빠름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적 분포, 균형적 분포, 편파적 분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑음, 냉대, 열대, 변화무쌍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약함, 일반, 강함, 매우 강함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적음, 보통, 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적음, 보통, 큼, 매우 큼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +500,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,16 +517,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -551,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,10 +557,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,10 +574,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -599,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,13 +605,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -650,10 +642,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -667,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -684,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -701,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -735,10 +727,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -769,10 +761,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -783,13 +775,13 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -820,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
